--- a/benchmarks/gradient_time_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_time_simulations-90.0-days.xlsx
@@ -462,13 +462,13 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>61059292135.49291</v>
+        <v>51147098233.89944</v>
       </c>
       <c r="I2">
-        <v>2210.949795913201</v>
+        <v>452.1009042951929</v>
       </c>
       <c r="J2">
-        <v>58760687705.51357</v>
+        <v>50678063699.0137</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_time_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_time_simulations-90.0-days.xlsx
@@ -462,13 +462,13 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>51147098233.89944</v>
+        <v>45597194445.13827</v>
       </c>
       <c r="I2">
-        <v>452.1009042951929</v>
+        <v>7174.319586170845</v>
       </c>
       <c r="J2">
-        <v>50678063699.0137</v>
+        <v>38156525786.8976</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_time_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_time_simulations-90.0-days.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>heuristic</t>
   </si>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +450,7 @@
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>3000</v>
@@ -462,13 +462,45 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>45597194445.13827</v>
+        <v>59228168411.57468</v>
       </c>
       <c r="I2">
-        <v>7174.319586170845</v>
+        <v>67159.70977695043</v>
       </c>
       <c r="J2">
-        <v>38156525786.8976</v>
+        <v>53576689613.44362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>1000000</v>
+      </c>
+      <c r="E3">
+        <v>3000</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>47111434806.60203</v>
+      </c>
+      <c r="I3">
+        <v>10223.70676468661</v>
+      </c>
+      <c r="J3">
+        <v>36454734250.50076</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_time_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_time_simulations-90.0-days.xlsx
@@ -462,13 +462,13 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>59228168411.57468</v>
+        <v>46354898378.35994</v>
       </c>
       <c r="I2">
-        <v>67159.70977695043</v>
+        <v>12490.37457217191</v>
       </c>
       <c r="J2">
-        <v>53576689613.44362</v>
+        <v>42233844725.0768</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -494,13 +494,13 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>47111434806.60203</v>
+        <v>42636603549.97146</v>
       </c>
       <c r="I3">
-        <v>10223.70676468661</v>
+        <v>6505.026150166013</v>
       </c>
       <c r="J3">
-        <v>36454734250.50076</v>
+        <v>33985319765.50115</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_time_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_time_simulations-90.0-days.xlsx
@@ -462,13 +462,13 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>46354898378.35994</v>
+        <v>46354898378.36001</v>
       </c>
       <c r="I2">
-        <v>12490.37457217191</v>
+        <v>12490.37457217213</v>
       </c>
       <c r="J2">
-        <v>42233844725.0768</v>
+        <v>42233844725.07681</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -494,13 +494,13 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>42636603549.97146</v>
+        <v>43361428571.72928</v>
       </c>
       <c r="I3">
-        <v>6505.026150166013</v>
+        <v>5829.140635650372</v>
       </c>
       <c r="J3">
-        <v>33985319765.50115</v>
+        <v>35609030857.33854</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/gradient_time_simulations-90.0-days.xlsx
+++ b/benchmarks/gradient_time_simulations-90.0-days.xlsx
@@ -462,13 +462,13 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>46354898378.36001</v>
+        <v>46384164182.44467</v>
       </c>
       <c r="I2">
-        <v>12490.37457217213</v>
+        <v>11258.8594910919</v>
       </c>
       <c r="J2">
-        <v>42233844725.07681</v>
+        <v>42669434590.51234</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -494,13 +494,13 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>43361428571.72928</v>
+        <v>43361428571.72325</v>
       </c>
       <c r="I3">
-        <v>5829.140635650372</v>
+        <v>5829.140635645934</v>
       </c>
       <c r="J3">
-        <v>35609030857.33854</v>
+        <v>35609030857.33841</v>
       </c>
     </row>
   </sheetData>
